--- a/app/Licenciatura_em_Engenharia_Civil.xlsx
+++ b/app/Licenciatura_em_Engenharia_Civil.xlsx
@@ -17,42 +17,40 @@
     <sheet name="20151605" sheetId="7" r:id="rId10"/>
     <sheet name="20151576" sheetId="8" r:id="rId11"/>
     <sheet name="20151604" sheetId="9" r:id="rId12"/>
-    <sheet name="20154426" sheetId="10" r:id="rId13"/>
-    <sheet name="20151591" sheetId="11" r:id="rId14"/>
-    <sheet name="20151599" sheetId="12" r:id="rId15"/>
-    <sheet name="20151602" sheetId="13" r:id="rId16"/>
-    <sheet name="20151587" sheetId="14" r:id="rId17"/>
-    <sheet name="20151589" sheetId="15" r:id="rId18"/>
-    <sheet name="20151603" sheetId="16" r:id="rId19"/>
-    <sheet name="20151606" sheetId="17" r:id="rId20"/>
-    <sheet name="20151595" sheetId="18" r:id="rId21"/>
-    <sheet name="20151598" sheetId="19" r:id="rId22"/>
-    <sheet name="20151593" sheetId="20" r:id="rId23"/>
-    <sheet name="20151596" sheetId="21" r:id="rId24"/>
-    <sheet name="20151590" sheetId="22" r:id="rId25"/>
-    <sheet name="20151588" sheetId="23" r:id="rId26"/>
-    <sheet name="20151584" sheetId="24" r:id="rId27"/>
-    <sheet name="20151578" sheetId="25" r:id="rId28"/>
-    <sheet name="20154794" sheetId="26" r:id="rId29"/>
-    <sheet name="20151577" sheetId="27" r:id="rId30"/>
-    <sheet name="20151613" sheetId="28" r:id="rId31"/>
-    <sheet name="20151612" sheetId="29" r:id="rId32"/>
-    <sheet name="20151583" sheetId="30" r:id="rId33"/>
-    <sheet name="20151575" sheetId="31" r:id="rId34"/>
-    <sheet name="20151579" sheetId="32" r:id="rId35"/>
-    <sheet name="20151594" sheetId="33" r:id="rId36"/>
-    <sheet name="20151608" sheetId="34" r:id="rId37"/>
-    <sheet name="20151601" sheetId="35" r:id="rId38"/>
-    <sheet name="20151586" sheetId="36" r:id="rId39"/>
-    <sheet name="20151580" sheetId="37" r:id="rId40"/>
-    <sheet name="20151610" sheetId="38" r:id="rId41"/>
-    <sheet name="20151581" sheetId="39" r:id="rId42"/>
-    <sheet name="20151600" sheetId="40" r:id="rId43"/>
-    <sheet name="20151582" sheetId="41" r:id="rId44"/>
-    <sheet name="20151607" sheetId="42" r:id="rId45"/>
-    <sheet name="20151609" sheetId="43" r:id="rId46"/>
-    <sheet name="Sheet2" sheetId="44" r:id="rId47"/>
-    <sheet name="Sheet3" sheetId="45" r:id="rId48"/>
+    <sheet name="20151591" sheetId="10" r:id="rId13"/>
+    <sheet name="20151599" sheetId="11" r:id="rId14"/>
+    <sheet name="20151602" sheetId="12" r:id="rId15"/>
+    <sheet name="20151587" sheetId="13" r:id="rId16"/>
+    <sheet name="20151589" sheetId="14" r:id="rId17"/>
+    <sheet name="20151603" sheetId="15" r:id="rId18"/>
+    <sheet name="20151606" sheetId="16" r:id="rId19"/>
+    <sheet name="20151595" sheetId="17" r:id="rId20"/>
+    <sheet name="20151598" sheetId="18" r:id="rId21"/>
+    <sheet name="20151593" sheetId="19" r:id="rId22"/>
+    <sheet name="20151596" sheetId="20" r:id="rId23"/>
+    <sheet name="20151590" sheetId="21" r:id="rId24"/>
+    <sheet name="20151588" sheetId="22" r:id="rId25"/>
+    <sheet name="20151584" sheetId="23" r:id="rId26"/>
+    <sheet name="20151578" sheetId="24" r:id="rId27"/>
+    <sheet name="20151577" sheetId="25" r:id="rId28"/>
+    <sheet name="20151613" sheetId="26" r:id="rId29"/>
+    <sheet name="20151612" sheetId="27" r:id="rId30"/>
+    <sheet name="20151583" sheetId="28" r:id="rId31"/>
+    <sheet name="20151575" sheetId="29" r:id="rId32"/>
+    <sheet name="20151579" sheetId="30" r:id="rId33"/>
+    <sheet name="20151594" sheetId="31" r:id="rId34"/>
+    <sheet name="20151608" sheetId="32" r:id="rId35"/>
+    <sheet name="20151601" sheetId="33" r:id="rId36"/>
+    <sheet name="20151586" sheetId="34" r:id="rId37"/>
+    <sheet name="20151580" sheetId="35" r:id="rId38"/>
+    <sheet name="20151610" sheetId="36" r:id="rId39"/>
+    <sheet name="20151581" sheetId="37" r:id="rId40"/>
+    <sheet name="20151600" sheetId="38" r:id="rId41"/>
+    <sheet name="20151582" sheetId="39" r:id="rId42"/>
+    <sheet name="20151607" sheetId="40" r:id="rId43"/>
+    <sheet name="20151609" sheetId="41" r:id="rId44"/>
+    <sheet name="Sheet2" sheetId="42" r:id="rId45"/>
+    <sheet name="Sheet3" sheetId="43" r:id="rId46"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -60,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="347">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -209,9 +207,6 @@
     <t>Linda Jacinto Sitoe</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -269,9 +264,6 @@
     <t>Marina Bernardo Rungo</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110500701728A</t>
   </si>
   <si>
@@ -296,9 +288,6 @@
     <t>Rita Wassela</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>090101938043P</t>
   </si>
   <si>
@@ -347,9 +336,6 @@
     <t>Adozinda FabiÃo Munguambe</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110100456272J</t>
   </si>
   <si>
@@ -374,9 +360,6 @@
     <t>Rita Timba</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110100949046J</t>
   </si>
   <si>
@@ -398,9 +381,6 @@
     <t>Flora Nhumaio</t>
   </si>
   <si>
-    <t>Distrito de Chibuto</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -416,15 +396,6 @@
     <t>Outra - Gaza</t>
   </si>
   <si>
-    <t>Santos</t>
-  </si>
-  <si>
-    <t>Horácio José dos</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>Sande</t>
   </si>
   <si>
@@ -440,9 +411,6 @@
     <t>Olga Maria M¨¢rio Sande</t>
   </si>
   <si>
-    <t>Distrito de Mocuba</t>
-  </si>
-  <si>
     <t>041100566036F</t>
   </si>
   <si>
@@ -488,9 +456,6 @@
     <t>Conceicao Cornelio</t>
   </si>
   <si>
-    <t>Cidade de Chimoio</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -536,9 +501,6 @@
     <t>EugÉnia Lacitela Makule</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110102650813B</t>
   </si>
   <si>
@@ -767,9 +729,6 @@
     <t>Escola Secundaria Eduardo Mondlane</t>
   </si>
   <si>
-    <t>Arnaldo Francisco</t>
-  </si>
-  <si>
     <t>Mate</t>
   </si>
   <si>
@@ -959,9 +918,6 @@
     <t xml:space="preserve">Mantete SimÃo </t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>070102543576B</t>
   </si>
   <si>
@@ -983,9 +939,6 @@
     <t>Rael Fernando Mazive</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110100570227B</t>
   </si>
   <si>
@@ -1095,9 +1048,6 @@
   </si>
   <si>
     <t>Alice Pereira</t>
-  </si>
-  <si>
-    <t>Cidade de Quelimane</t>
   </si>
   <si>
     <t>040101412439I</t>
@@ -2332,7 +2282,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -2382,7 +2334,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154426</v>
+        <v>20151591</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2406,7 +2358,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2422,7 +2374,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2437,7 +2389,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -2451,7 +2405,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -2465,7 +2421,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -2486,7 +2444,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -2495,14 +2455,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -2512,13 +2476,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>117</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -2613,7 +2581,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2639,7 +2607,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -2653,7 +2623,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>119</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -2955,7 +2927,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151591</v>
+        <v>20151599</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2979,7 +2951,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2995,7 +2967,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3011,7 +2983,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3027,7 +2999,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3043,7 +3015,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3058,9 +3030,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>126</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3068,7 +3038,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3079,7 +3049,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3088,7 +3058,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3100,7 +3070,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3108,7 +3078,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3204,7 +3174,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3247,7 +3217,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3550,7 +3520,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151599</v>
+        <v>20151602</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3574,7 +3544,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3590,7 +3560,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3606,7 +3576,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3622,7 +3592,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3638,7 +3608,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3653,9 +3623,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3663,7 +3631,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3674,7 +3642,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3683,7 +3651,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3695,15 +3663,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>135</v>
+      <c r="H17" s="20">
+        <v>60140533</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3799,7 +3767,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3826,7 +3794,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3842,7 +3810,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4145,7 +4113,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151602</v>
+        <v>20151587</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4169,7 +4137,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4185,7 +4153,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4201,7 +4169,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4217,7 +4185,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4233,7 +4201,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4248,9 +4216,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>142</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4258,7 +4224,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4269,7 +4235,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4278,7 +4244,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4290,15 +4256,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>60140533</v>
+      <c r="H17" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4394,7 +4360,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4421,7 +4387,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4437,7 +4403,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4740,7 +4706,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151587</v>
+        <v>20151589</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4764,7 +4730,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4780,7 +4746,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4796,7 +4762,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4812,7 +4778,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4828,7 +4794,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4843,9 +4809,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4853,7 +4817,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4864,7 +4828,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4873,7 +4837,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4885,7 +4849,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4893,7 +4857,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4989,7 +4953,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5032,7 +4996,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5335,7 +5299,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151589</v>
+        <v>20151603</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5359,7 +5323,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5375,7 +5339,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5391,7 +5355,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5407,7 +5371,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5423,7 +5387,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5438,9 +5402,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>158</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5448,7 +5410,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5459,7 +5421,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5468,7 +5430,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5480,7 +5442,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5488,7 +5450,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5584,7 +5546,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5627,7 +5589,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5930,7 +5892,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151603</v>
+        <v>20151606</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5954,7 +5916,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5970,7 +5932,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5986,7 +5948,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6002,7 +5964,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6018,7 +5980,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6033,9 +5995,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6043,7 +6003,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6054,7 +6014,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6063,7 +6023,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6075,7 +6035,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6083,7 +6043,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6179,7 +6139,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6206,7 +6166,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6222,7 +6182,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6525,7 +6485,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151606</v>
+        <v>20151595</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6549,7 +6509,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6565,7 +6525,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6581,7 +6541,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6597,7 +6557,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6613,7 +6573,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6628,9 +6588,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>95</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6638,7 +6596,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6649,7 +6607,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6658,7 +6616,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6670,15 +6628,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>175</v>
+      <c r="H17" s="20">
+        <v>385980</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6774,7 +6732,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6817,7 +6775,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7120,7 +7078,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151595</v>
+        <v>20151598</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7144,7 +7102,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7160,7 +7118,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7176,7 +7134,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7192,7 +7150,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7208,7 +7166,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7223,9 +7181,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7233,7 +7189,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7244,7 +7200,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7253,7 +7209,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7265,15 +7221,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>385980</v>
+      <c r="H17" s="20" t="s">
+        <v>177</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7369,7 +7325,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7396,7 +7352,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7412,7 +7368,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>183</v>
+        <v>70</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7715,7 +7671,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151598</v>
+        <v>20151593</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7739,7 +7695,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7755,7 +7711,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7771,7 +7727,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7787,7 +7743,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7803,7 +7759,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7818,9 +7774,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>95</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7828,7 +7782,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7839,7 +7793,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7848,7 +7802,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7860,15 +7814,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>189</v>
+      <c r="H17" s="20">
+        <v>1535639</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7964,7 +7918,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7991,7 +7945,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -8007,7 +7961,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8413,9 +8367,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8423,7 +8375,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8434,7 +8386,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8443,7 +8395,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8455,7 +8407,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8463,7 +8415,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8559,7 +8511,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8602,7 +8554,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8905,7 +8857,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151593</v>
+        <v>20151596</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8929,7 +8881,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8945,7 +8897,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8961,7 +8913,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8977,7 +8929,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8993,7 +8945,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9008,9 +8960,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9018,7 +8968,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9029,7 +8979,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9038,7 +8988,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9050,15 +9000,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>1535639</v>
+      <c r="H17" s="20" t="s">
+        <v>190</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9154,7 +9104,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9181,7 +9131,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9197,7 +9147,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9500,7 +9450,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151596</v>
+        <v>20151590</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9524,7 +9474,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9540,7 +9490,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9556,7 +9506,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9572,7 +9522,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9588,7 +9538,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9603,9 +9553,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9613,7 +9561,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9624,7 +9572,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9633,7 +9581,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9645,7 +9593,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9653,7 +9601,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9749,7 +9697,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9776,7 +9724,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9792,7 +9740,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10095,7 +10043,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151590</v>
+        <v>20151588</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10119,7 +10067,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10135,7 +10083,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10151,7 +10099,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10167,7 +10115,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10183,7 +10131,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10198,9 +10146,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10208,7 +10154,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10219,7 +10165,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10228,7 +10174,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10240,7 +10186,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10248,7 +10194,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10344,7 +10290,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10387,7 +10333,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10690,7 +10636,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151588</v>
+        <v>20151584</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10714,7 +10660,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10730,7 +10676,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10746,7 +10692,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10762,7 +10708,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10778,7 +10724,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10793,9 +10739,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>95</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10803,7 +10747,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10814,7 +10758,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10823,7 +10767,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10835,7 +10779,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10843,7 +10787,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10939,7 +10883,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10982,7 +10926,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>218</v>
+        <v>70</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11285,7 +11229,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151584</v>
+        <v>20151578</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11309,7 +11253,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11325,7 +11269,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11341,7 +11285,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11357,7 +11301,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11373,7 +11317,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11388,9 +11332,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11398,7 +11340,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11409,7 +11351,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11418,7 +11360,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11430,7 +11372,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11438,7 +11380,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11534,7 +11476,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11561,7 +11503,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11577,7 +11519,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>72</v>
+        <v>222</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11880,7 +11822,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151578</v>
+        <v>20151577</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11904,7 +11846,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11920,7 +11862,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11936,7 +11878,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11952,7 +11894,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11968,7 +11910,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11983,9 +11925,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11993,7 +11933,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12004,7 +11944,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12013,7 +11953,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12025,7 +11965,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>231</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12033,7 +11973,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12129,7 +12069,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12156,7 +12096,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12172,7 +12112,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>234</v>
+        <v>157</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12423,7 +12363,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -12473,7 +12415,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154794</v>
+        <v>20151613</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12497,7 +12439,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12513,7 +12455,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12528,7 +12470,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>232</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -12542,7 +12486,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -12556,7 +12502,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>234</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -12577,7 +12525,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -12586,14 +12536,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -12603,13 +12557,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>235</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -12704,7 +12662,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>120</v>
+        <v>236</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12730,7 +12688,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2012</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -12744,7 +12704,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>157</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -13046,7 +13008,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151577</v>
+        <v>20151612</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13070,7 +13032,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13086,7 +13048,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13102,7 +13064,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13118,7 +13080,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13134,7 +13096,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13149,9 +13111,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13159,7 +13119,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13170,7 +13130,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13179,7 +13139,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13191,7 +13151,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13199,7 +13159,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13295,7 +13255,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13322,7 +13282,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13338,7 +13298,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13641,7 +13601,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151613</v>
+        <v>20151583</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13665,7 +13625,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13681,7 +13641,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13697,7 +13657,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13713,7 +13673,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13729,7 +13689,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13744,9 +13704,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>95</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13754,7 +13712,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13765,7 +13723,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13774,7 +13732,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13786,7 +13744,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13794,7 +13752,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13890,7 +13848,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13917,7 +13875,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13933,7 +13891,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14236,7 +14194,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151612</v>
+        <v>20151575</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14260,7 +14218,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14276,7 +14234,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14292,7 +14250,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14308,7 +14266,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14324,7 +14282,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14339,9 +14297,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14349,7 +14305,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14360,7 +14316,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14369,7 +14325,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14381,7 +14337,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14389,7 +14345,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14485,7 +14441,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14512,7 +14468,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14528,7 +14484,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>257</v>
+        <v>171</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14855,7 +14811,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14871,7 +14827,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14887,7 +14843,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14903,7 +14859,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14919,7 +14875,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14934,9 +14890,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14944,7 +14898,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14955,7 +14909,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14964,7 +14918,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14976,7 +14930,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14984,7 +14938,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15080,7 +15034,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15123,7 +15077,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15426,7 +15380,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151583</v>
+        <v>20151579</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15450,7 +15404,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15466,7 +15420,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15482,7 +15436,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15498,7 +15452,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15514,7 +15468,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15529,9 +15483,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>95</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15539,7 +15491,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15550,7 +15502,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15559,7 +15511,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15571,7 +15523,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15579,7 +15531,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15675,7 +15627,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15702,7 +15654,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15718,7 +15670,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>265</v>
+        <v>70</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16021,7 +15973,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151575</v>
+        <v>20151594</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16045,7 +15997,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16061,7 +16013,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16077,7 +16029,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16093,7 +16045,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16109,7 +16061,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16124,9 +16076,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16134,7 +16084,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16145,7 +16095,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16154,7 +16104,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16166,7 +16116,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16174,7 +16124,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16270,7 +16220,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16297,7 +16247,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16313,7 +16263,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16616,7 +16566,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151579</v>
+        <v>20151608</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16640,7 +16590,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16656,7 +16606,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16672,7 +16622,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16688,7 +16638,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16704,7 +16654,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16719,9 +16669,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16729,7 +16677,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16740,7 +16688,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16749,7 +16697,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16761,7 +16709,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16769,7 +16717,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16865,7 +16813,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16892,7 +16840,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16908,7 +16856,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>72</v>
+        <v>222</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17211,7 +17159,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151594</v>
+        <v>20151601</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17235,7 +17183,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17251,7 +17199,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17267,7 +17215,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17283,7 +17231,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17299,7 +17247,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17314,9 +17262,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17324,7 +17270,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17335,7 +17281,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17344,7 +17290,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17356,7 +17302,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17364,7 +17310,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17460,7 +17406,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17503,7 +17449,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>218</v>
+        <v>288</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17806,7 +17752,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151608</v>
+        <v>20151586</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17830,7 +17776,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17846,7 +17792,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17862,7 +17808,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>289</v>
+        <v>104</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17878,7 +17824,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17894,7 +17840,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17909,9 +17855,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>158</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17919,7 +17863,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17930,7 +17874,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17939,7 +17883,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17951,7 +17895,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17959,7 +17903,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18055,7 +17999,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18082,7 +18026,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -18098,7 +18042,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>234</v>
+        <v>295</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18401,7 +18345,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151601</v>
+        <v>20151580</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18425,7 +18369,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18441,7 +18385,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18457,7 +18401,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18473,7 +18417,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18489,7 +18433,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18504,9 +18448,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>299</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18514,7 +18456,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18525,7 +18467,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18534,7 +18476,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18546,7 +18488,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18554,7 +18496,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18650,7 +18592,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18693,7 +18635,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18996,7 +18938,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151586</v>
+        <v>20151610</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19052,7 +18994,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>109</v>
+        <v>305</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19068,7 +19010,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19084,7 +19026,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19099,9 +19041,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>307</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19109,7 +19049,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19120,7 +19060,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19129,7 +19069,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19141,7 +19081,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19288,7 +19228,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19591,7 +19531,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151580</v>
+        <v>20151581</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19615,7 +19555,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19631,7 +19571,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19647,7 +19587,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19663,7 +19603,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19679,7 +19619,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19694,9 +19634,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>307</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19704,7 +19642,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19715,7 +19653,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19724,7 +19662,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19736,7 +19674,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19744,7 +19682,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19840,7 +19778,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19883,7 +19821,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>310</v>
+        <v>252</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20186,7 +20124,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151610</v>
+        <v>20151600</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20210,7 +20148,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20226,7 +20164,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20242,7 +20180,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20258,7 +20196,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20274,7 +20212,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20289,9 +20227,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>307</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20299,7 +20235,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20310,7 +20246,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20319,7 +20255,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20331,7 +20267,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20339,7 +20275,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20435,7 +20371,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20462,7 +20398,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -20478,7 +20414,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20781,7 +20717,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151581</v>
+        <v>20151582</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20884,9 +20820,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>95</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20894,7 +20828,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20905,7 +20839,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20914,7 +20848,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20926,7 +20860,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21073,7 +21007,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>265</v>
+        <v>332</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21400,7 +21334,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21416,7 +21350,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21432,7 +21366,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21448,7 +21382,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21464,7 +21398,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21479,9 +21413,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21489,7 +21421,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21500,7 +21432,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21509,7 +21441,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21521,7 +21453,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21529,7 +21461,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21625,7 +21557,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21668,7 +21600,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21971,7 +21903,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151600</v>
+        <v>20151607</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -21995,7 +21927,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22011,7 +21943,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22027,7 +21959,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22043,7 +21975,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22059,7 +21991,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22074,9 +22006,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>142</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22084,7 +22014,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22095,7 +22025,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22104,7 +22034,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22116,7 +22046,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22124,7 +22054,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22220,7 +22150,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22263,7 +22193,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>339</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22566,7 +22496,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151582</v>
+        <v>20151609</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -22669,9 +22599,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>345</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22679,7 +22607,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22690,7 +22618,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22699,7 +22627,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22711,7 +22639,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22719,7 +22647,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22815,7 +22743,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22842,7 +22770,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -22858,7 +22786,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>348</v>
+        <v>171</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23061,1196 +22989,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151607</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>355</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151609</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>360</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>362</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -24274,7 +23012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24431,7 +23169,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24447,7 +23185,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24463,7 +23201,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24479,7 +23217,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24495,7 +23233,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24510,9 +23248,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24520,7 +23256,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24531,7 +23267,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24540,7 +23276,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24552,7 +23288,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24560,7 +23296,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24656,7 +23392,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24699,7 +23435,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25026,7 +23762,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25042,7 +23778,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25058,7 +23794,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25074,7 +23810,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25090,7 +23826,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25105,9 +23841,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25115,7 +23849,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25126,7 +23860,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25135,7 +23869,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25147,7 +23881,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25155,7 +23889,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25251,7 +23985,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25294,7 +24028,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25621,7 +24355,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25637,7 +24371,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25653,7 +24387,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25669,7 +24403,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25685,7 +24419,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25700,9 +24434,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>95</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25710,7 +24442,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25721,7 +24453,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25730,7 +24462,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25742,7 +24474,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25750,7 +24482,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25846,7 +24578,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25889,7 +24621,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26216,7 +24948,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26232,7 +24964,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26248,7 +24980,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26264,7 +24996,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26280,7 +25012,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -26295,9 +25027,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>104</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -26305,7 +25035,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -26316,7 +25046,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -26325,7 +25055,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -26337,7 +25067,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -26345,7 +25075,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -26441,7 +25171,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26484,7 +25214,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26811,7 +25541,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26827,7 +25557,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26843,7 +25573,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26859,7 +25589,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26875,7 +25605,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -26890,9 +25620,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>112</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -26900,7 +25628,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -26911,7 +25639,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -26920,7 +25648,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -26932,7 +25660,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -26940,7 +25668,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27036,7 +25764,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27079,7 +25807,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
